--- a/data/topics-activities/twcs-AmazonHelp-outbound-activities.xlsx
+++ b/data/topics-activities/twcs-AmazonHelp-outbound-activities.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10401"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophkecht/Dropbox/FIM/Master Thesis/code/electric/data/topics-activities/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christophkecht/Dropbox/FIM/Master Thesis/code/ericsson/data/topics-activities/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5B53A52-5FC5-794A-90DB-8ABCB7C52BB3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50878353-1026-AC49-B84E-57F2CE3FB259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30540" yWindow="1180" windowWidth="27240" windowHeight="15000" xr2:uid="{25CB5DFD-306B-5A49-B78A-DB8FCCB5676A}"/>
+    <workbookView xWindow="-32000" yWindow="1160" windowWidth="27240" windowHeight="15000" xr2:uid="{25CB5DFD-306B-5A49-B78A-DB8FCCB5676A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -96,9 +96,6 @@
     <t>This example asks to reach out by chat</t>
   </si>
   <si>
-    <t>The sentence is question</t>
-  </si>
-  <si>
     <t>Investigate Issue</t>
   </si>
   <si>
@@ -133,6 +130,9 @@
   </si>
   <si>
     <t>?</t>
+  </si>
+  <si>
+    <t>The sentence is a question</t>
   </si>
 </sst>
 </file>
@@ -523,15 +523,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F73D6742-B3E8-D84E-9A79-0F2768F4C93C}">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="34.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="42.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18.5" bestFit="1" customWidth="1"/>
   </cols>
@@ -562,7 +561,7 @@
         <v>6</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -579,22 +578,22 @@
         <v>0.87999999999999989</v>
       </c>
       <c r="E2">
-        <v>0.97974340685458328</v>
+        <v>0.97910341998718586</v>
       </c>
       <c r="F2">
         <v>0.99</v>
       </c>
       <c r="G2">
-        <v>0.98750000000000004</v>
+        <v>0.98717948717948723</v>
       </c>
       <c r="H2">
-        <v>0.98666666666666669</v>
+        <v>0.9870129870129869</v>
       </c>
       <c r="I2">
         <v>39</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -626,7 +625,7 @@
         <v>7</v>
       </c>
       <c r="J3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -658,7 +657,7 @@
         <v>7</v>
       </c>
       <c r="J4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -690,7 +689,7 @@
         <v>35</v>
       </c>
       <c r="J5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -707,22 +706,22 @@
         <v>0.85</v>
       </c>
       <c r="E6">
-        <v>0.86006535293986897</v>
+        <v>0.86051769794613375</v>
       </c>
       <c r="F6">
         <v>0.96</v>
       </c>
       <c r="G6">
-        <v>0.91078431372549018</v>
+        <v>0.91056910569105698</v>
       </c>
       <c r="H6">
-        <v>0.86476190476190473</v>
+        <v>0.88235294117647056</v>
       </c>
       <c r="I6">
         <v>18</v>
       </c>
       <c r="J6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -730,7 +729,7 @@
         <v>142</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
         <v>7</v>
@@ -739,22 +738,22 @@
         <v>0.99099999999999999</v>
       </c>
       <c r="E7">
-        <v>0.93764944032233699</v>
+        <v>0.92088235736679336</v>
       </c>
       <c r="F7">
         <v>0.99</v>
       </c>
       <c r="G7">
-        <v>0.95</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="H7">
-        <v>0.93333333333333335</v>
+        <v>0.92307692307692302</v>
       </c>
       <c r="I7">
         <v>7</v>
       </c>
       <c r="J7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -762,7 +761,7 @@
         <v>146</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
         <v>19</v>
@@ -786,7 +785,7 @@
         <v>3</v>
       </c>
       <c r="J8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -794,31 +793,31 @@
         <v>171</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="D9">
-        <v>0.80999999999999994</v>
+        <v>0.98000000000000009</v>
       </c>
       <c r="E9">
-        <v>0.87608561427257603</v>
+        <v>0.86602540378443871</v>
       </c>
       <c r="F9">
         <v>0.95</v>
       </c>
       <c r="G9">
-        <v>0.92666666666666675</v>
+        <v>0.9</v>
       </c>
       <c r="H9">
-        <v>0.89444444444444449</v>
+        <v>0.88888888888888895</v>
       </c>
       <c r="I9">
         <v>25</v>
       </c>
       <c r="J9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
